--- a/PlanExperience/Exercice 3 - Plan Complet à 3 facteurs à 2 niveaux (Yates) - vierge.xlsx
+++ b/PlanExperience/Exercice 3 - Plan Complet à 3 facteurs à 2 niveaux (Yates) - vierge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\muller5\Documents\BB - Ressources pedagogiques\Plans d'expériences\A2P2 Cesi NY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetHDD\Ecole\Projet_CESI\2025-2026\Systèmes_automatisés\PlanExperience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0F3ECF-02FB-4D94-B238-2A334516C9C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7D4B39-BD15-4B0A-B56D-CBC6E8EE260A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12072" yWindow="276" windowWidth="10656" windowHeight="6636" tabRatio="806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3fact 2niv" sheetId="3" r:id="rId1"/>
@@ -96,6 +96,19 @@
     <definedName name="ydata2" hidden="1">0+1*[0]!xdata2+9.662366360509*(1.015625+([0]!xdata2-17.83665625)^2/2559.2483019375)^0.5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -178,30 +191,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="16"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Laurent Muller:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="16"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Saisir la réponse mesurée pour les niveaux des facteurs correspondants ou la moyenne des répétitions lorsqu'il y en a.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="M15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
@@ -255,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Domaine du plan</t>
   </si>
@@ -382,12 +371,24 @@
   <si>
     <t>Placez ici le facteur le plus facile à régler</t>
   </si>
+  <si>
+    <t>L(mh)</t>
+  </si>
+  <si>
+    <t>C(microF)</t>
+  </si>
+  <si>
+    <t>R(Ohms)</t>
+  </si>
+  <si>
+    <t>Puissance(Whatt)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -604,6 +605,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1010,288 +1019,286 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1423,7 +1430,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1509,46 +1516,46 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0=</c:v>
+                  <c:v>L(mh)=10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0=</c:v>
+                  <c:v>L(mh)=20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0=</c:v>
+                  <c:v>C(microF)=10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0=</c:v>
+                  <c:v>C(microF)=20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0=</c:v>
+                  <c:v>R(Ohms)=100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0=</c:v>
+                  <c:v>R(Ohms)=110</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0 0 niveau -</c:v>
+                  <c:v>R(Ohms) C(microF) niveau -</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0 0 niveau +</c:v>
+                  <c:v>R(Ohms) C(microF) niveau +</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0-0 niveau -</c:v>
+                  <c:v>R(Ohms)-L(mh) niveau -</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0-0 niveau +</c:v>
+                  <c:v>R(Ohms)-L(mh) niveau +</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0-0 niveau -</c:v>
+                  <c:v>L(mh)-C(microF) niveau -</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0-0 niveau +</c:v>
+                  <c:v>L(mh)-C(microF) niveau +</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0-0-0 niveau -</c:v>
+                  <c:v>R(Ohms)-L(mh)-C(microF) niveau -</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0-0-0 niveau -</c:v>
+                  <c:v>R(Ohms)-L(mh)-C(microF) niveau -</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1560,46 +1567,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.1999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.2374999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.2249999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.2124999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.4375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.2124999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.2249999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.2374999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2.2374999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2.1875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,46 +1641,46 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0=</c:v>
+                  <c:v>L(mh)=10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0=</c:v>
+                  <c:v>L(mh)=20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0=</c:v>
+                  <c:v>C(microF)=10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0=</c:v>
+                  <c:v>C(microF)=20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0=</c:v>
+                  <c:v>R(Ohms)=100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0=</c:v>
+                  <c:v>R(Ohms)=110</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0 0 niveau -</c:v>
+                  <c:v>R(Ohms) C(microF) niveau -</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0 0 niveau +</c:v>
+                  <c:v>R(Ohms) C(microF) niveau +</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0-0 niveau -</c:v>
+                  <c:v>R(Ohms)-L(mh) niveau -</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0-0 niveau +</c:v>
+                  <c:v>R(Ohms)-L(mh) niveau +</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0-0 niveau -</c:v>
+                  <c:v>L(mh)-C(microF) niveau -</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0-0 niveau +</c:v>
+                  <c:v>L(mh)-C(microF) niveau +</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0-0-0 niveau -</c:v>
+                  <c:v>R(Ohms)-L(mh)-C(microF) niveau -</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0-0-0 niveau -</c:v>
+                  <c:v>R(Ohms)-L(mh)-C(microF) niveau -</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1685,64 +1692,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2.2187499999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,679 +2251,703 @@
   </sheetPr>
   <dimension ref="A2:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="11" customWidth="1"/>
-    <col min="8" max="9" width="20.77734375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="37.44140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="10" customWidth="1"/>
+    <col min="8" max="9" width="20.83203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="37.5" style="10" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="27" style="1" customWidth="1"/>
     <col min="15" max="15" width="4.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="3.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:14" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-    </row>
-    <row r="3" spans="1:14" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="94" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+    </row>
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="80" t="s">
+      <c r="B7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="29">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20</v>
+      </c>
+      <c r="E7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="37" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="80" t="s">
+      <c r="B8" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="29">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <v>20</v>
+      </c>
+      <c r="E8" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="39" t="s">
+      <c r="G8" s="79"/>
+      <c r="H8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="80" t="s">
+      <c r="B9" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="31">
+        <v>100</v>
+      </c>
+      <c r="D9" s="8">
+        <v>110</v>
+      </c>
+      <c r="E9" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
+      <c r="G9" s="79"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-    </row>
-    <row r="11" spans="1:14" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+    </row>
+    <row r="11" spans="1:14" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-    </row>
-    <row r="12" spans="1:14" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:14" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-    </row>
-    <row r="13" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14" t="str">
         <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="15">
+        <v>L(mh)</v>
+      </c>
+      <c r="C13" s="14" t="str">
         <f>B8</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
+        <v>C(microF)</v>
+      </c>
+      <c r="D13" s="14" t="str">
         <f>B9</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
+        <v>R(Ohms)</v>
+      </c>
+      <c r="E13" s="13" t="str">
         <f>B10</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="16" t="str">
+        <v>Puissance(Whatt)</v>
+      </c>
+      <c r="F13" s="15" t="str">
         <f>CONCATENATE(D13," ",C13)</f>
-        <v>0 0</v>
-      </c>
-      <c r="G13" s="16" t="str">
+        <v>R(Ohms) C(microF)</v>
+      </c>
+      <c r="G13" s="15" t="str">
         <f>CONCATENATE(D13,"-",B13)</f>
-        <v>0-0</v>
-      </c>
-      <c r="H13" s="16" t="str">
+        <v>R(Ohms)-L(mh)</v>
+      </c>
+      <c r="H13" s="15" t="str">
         <f>CONCATENATE(B13,"-",C13)</f>
-        <v>0-0</v>
-      </c>
-      <c r="I13" s="16" t="str">
+        <v>L(mh)-C(microF)</v>
+      </c>
+      <c r="I13" s="15" t="str">
         <f>CONCATENATE(D13,"-",B13,"-",C13)</f>
-        <v>0-0-0</v>
-      </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="90" t="s">
+        <v>R(Ohms)-L(mh)-C(microF)</v>
+      </c>
+      <c r="J13" s="41"/>
+      <c r="K13" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="92"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>1</v>
-      </c>
-      <c r="B14" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C14" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17">
+      <c r="L13" s="88"/>
+      <c r="M13" s="89"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="99">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F14" s="16">
         <f>D14*C14</f>
         <v>1</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <f>D14*B14</f>
         <v>1</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <f>B14*C14</f>
         <v>1</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <f t="shared" ref="I14:I21" si="0">D14*B14*C14</f>
         <v>-1</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="29" t="s">
+      <c r="J14" s="41"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="45" t="s">
+      <c r="N14" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <v>2</v>
       </c>
-      <c r="B15" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C15" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17">
+      <c r="B15" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="99">
+        <v>2.4</v>
+      </c>
+      <c r="F15" s="16">
         <f t="shared" ref="F15:F21" si="1">D15*C15</f>
         <v>-1</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <f t="shared" ref="G15:G21" si="2">D15*B15</f>
         <v>-1</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <f t="shared" ref="H15:H21" si="3">B15*C15</f>
         <v>1</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="30" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="5" t="str">
         <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="46" t="e">
+        <v>L(mh)</v>
+      </c>
+      <c r="M15" s="7">
+        <v>15</v>
+      </c>
+      <c r="N15" s="43">
         <f>(M15-((C7+D7)/2))/((D7-C7)/2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>3</v>
       </c>
-      <c r="B16" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C16" s="17">
-        <v>1</v>
-      </c>
-      <c r="D16" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17">
+      <c r="B16" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="99">
+        <v>1.95</v>
+      </c>
+      <c r="F16" s="16">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="30" t="s">
+      <c r="J16" s="41"/>
+      <c r="K16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="5" t="str">
         <f t="shared" ref="L16:L17" si="4">B8</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="46" t="e">
+        <v>C(microF)</v>
+      </c>
+      <c r="M16" s="7">
+        <v>18</v>
+      </c>
+      <c r="N16" s="43">
         <f t="shared" ref="N16:N17" si="5">(M16-((C8+D8)/2))/((D8-C8)/2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>4</v>
       </c>
-      <c r="B17" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C17" s="17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="17">
+      <c r="B17" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="99">
+        <v>2.4</v>
+      </c>
+      <c r="F17" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="32" t="s">
+      <c r="J17" s="41"/>
+      <c r="K17" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="46" t="e">
+        <v>R(Ohms)</v>
+      </c>
+      <c r="M17" s="9">
+        <v>105</v>
+      </c>
+      <c r="N17" s="43">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>5</v>
       </c>
-      <c r="B18" s="17">
-        <v>1</v>
-      </c>
-      <c r="C18" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D18" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17">
+      <c r="B18" s="16">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="99">
+        <v>1.95</v>
+      </c>
+      <c r="F18" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="95" t="s">
+      <c r="J18" s="41"/>
+      <c r="K18" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="88" t="str">
+      <c r="L18" s="85" t="str">
         <f>CONCATENATE(B10," =")</f>
-        <v xml:space="preserve"> =</v>
-      </c>
-      <c r="M18" s="89"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+        <v>Puissance(Whatt) =</v>
+      </c>
+      <c r="M18" s="86"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>6</v>
       </c>
-      <c r="B19" s="17">
-        <v>1</v>
-      </c>
-      <c r="C19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17">
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="99">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="16">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="16">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="98" t="e">
+      <c r="J19" s="41"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="95">
         <f>B29+(C29*N15)+(D29*N16)+(E29*N17)+(F29*N17*N16)+(G29*N17*N15)+(H29*N15*N16)+(I29*N15*N16*N17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="99"/>
-    </row>
-    <row r="20" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
+        <v>2.2149999999999999</v>
+      </c>
+      <c r="M19" s="96"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>7</v>
       </c>
-      <c r="B20" s="17">
-        <v>1</v>
-      </c>
-      <c r="C20" s="17">
-        <v>1</v>
-      </c>
-      <c r="D20" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17">
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="99">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F20" s="16">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="J20" s="41"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="98"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>8</v>
       </c>
-      <c r="B21" s="17">
-        <v>1</v>
-      </c>
-      <c r="C21" s="17">
-        <v>1</v>
-      </c>
-      <c r="D21" s="17">
-        <v>1</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17">
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="99">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F21" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="79" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="47"/>
-    </row>
-    <row r="23" spans="1:15" s="49" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K22" s="44"/>
+    </row>
+    <row r="23" spans="1:15" s="46" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="4" t="str">
         <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
+        <v>L(mh)</v>
+      </c>
+      <c r="D23" s="4" t="str">
         <f>B8</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
+        <v>C(microF)</v>
+      </c>
+      <c r="E23" s="4" t="str">
         <f>B9</f>
-        <v>0</v>
+        <v>R(Ohms)</v>
       </c>
       <c r="F23" s="4" t="str">
         <f>F13</f>
-        <v>0 0</v>
+        <v>R(Ohms) C(microF)</v>
       </c>
       <c r="G23" s="4" t="str">
         <f>G13</f>
-        <v>0-0</v>
+        <v>R(Ohms)-L(mh)</v>
       </c>
       <c r="H23" s="4" t="str">
         <f>H13</f>
-        <v>0-0</v>
+        <v>L(mh)-C(microF)</v>
       </c>
       <c r="I23" s="4" t="str">
         <f>I13</f>
-        <v>0-0-0</v>
-      </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
+        <v>R(Ohms)-L(mh)-C(microF)</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="2">
         <f>(SUM(E14:E21))/8</f>
-        <v>0</v>
+        <v>2.2187499999999996</v>
       </c>
       <c r="C24" s="2">
         <f>((E14+E15+E16+E17)/4)-B24</f>
-        <v>0</v>
+        <v>-1.8749999999999822E-2</v>
       </c>
       <c r="D24" s="2">
         <f>((E14+E15+E18+E19)/4)-B24</f>
-        <v>0</v>
+        <v>6.2500000000000888E-3</v>
       </c>
       <c r="E24" s="2">
         <f>((E14+E16+E18+E20)/4)-B24</f>
-        <v>0</v>
+        <v>-0.21874999999999956</v>
       </c>
       <c r="F24" s="2">
         <f>((E14+E17+E18+E21)/4)-B24</f>
-        <v>0</v>
+        <v>-6.2499999999996447E-3</v>
       </c>
       <c r="G24" s="2">
         <f>((E14+E16+E19+E21)/4)-B24</f>
-        <v>0</v>
+        <v>1.8750000000000266E-2</v>
       </c>
       <c r="H24" s="2">
         <f>((E14+E15+E20+E21)/4)-B24</f>
-        <v>0</v>
+        <v>1.8750000000000266E-2</v>
       </c>
       <c r="I24" s="2">
         <f>((E15+E16+E18+E21)/4)-B24</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+        <v>-3.1249999999999556E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="2">
         <f>(SUM(E14:E21))/8</f>
-        <v>0</v>
+        <v>2.2187499999999996</v>
       </c>
       <c r="C25" s="2">
         <f>((E18+E19+E20+E21)/4)-B25</f>
-        <v>0</v>
+        <v>1.8750000000000266E-2</v>
       </c>
       <c r="D25" s="2">
         <f>((E16+E17+E20+E21)/4)-B25</f>
-        <v>0</v>
+        <v>-6.2499999999996447E-3</v>
       </c>
       <c r="E25" s="2">
         <f>((E15+E17+E19+E21)/4)-B25</f>
-        <v>0</v>
+        <v>0.21875000000000044</v>
       </c>
       <c r="F25" s="2">
         <f>((E15+E16+E19+E20)/4)-B25</f>
-        <v>0</v>
+        <v>6.2500000000000888E-3</v>
       </c>
       <c r="G25" s="2">
         <f>((E15+E17+E18+E20)/4)-B25</f>
-        <v>0</v>
+        <v>-1.8749999999999378E-2</v>
       </c>
       <c r="H25" s="2">
         <f>((E16+E17+E18+E19)/4)-B25</f>
-        <v>0</v>
+        <v>-1.8749999999999378E-2</v>
       </c>
       <c r="I25" s="2">
         <f>((E14+E17+E19+E20)/4)-B25</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
+        <v>3.1250000000000444E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2925,11 +2956,9 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2938,11 +2967,9 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="50"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2951,1765 +2978,1674 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+    </row>
+    <row r="29" spans="1:15" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="3" t="e">
+      <c r="B29" s="3">
         <f>AVERAGE(E14:E21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C29" s="3" t="e">
+        <v>2.2187499999999996</v>
+      </c>
+      <c r="C29" s="3">
         <f>(AVERAGE(E18:E21))-B29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="3" t="e">
+        <v>1.8750000000000266E-2</v>
+      </c>
+      <c r="D29" s="3">
         <f>((E16+E17+E20+E21)/4)-B29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="3" t="e">
+        <v>-6.2499999999996447E-3</v>
+      </c>
+      <c r="E29" s="3">
         <f>((E15+E17+E19+E21)/4)-B29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="3" t="e">
+        <v>0.21875000000000044</v>
+      </c>
+      <c r="F29" s="3">
         <f>((E14+E17+E18+E21)/4)-B29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="3" t="e">
+        <v>-6.2499999999996447E-3</v>
+      </c>
+      <c r="G29" s="3">
         <f>((E14+E16+E19+E21)/4)-B29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="3" t="e">
+        <v>1.8750000000000266E-2</v>
+      </c>
+      <c r="H29" s="3">
         <f>((E14+E15+E20+E21)/4)-B29</f>
-        <v>#DIV/0!</v>
+        <v>1.8750000000000266E-2</v>
       </c>
       <c r="I29" s="3">
         <f>SUMPRODUCT(I14:I21,E14:E21)/8</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="1:15" ht="32.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53" t="e">
+        <v>-3.125E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="32.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50">
         <f>ROUNDUP(B29,$K$31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C30" s="53" t="e">
+        <v>2.21875</v>
+      </c>
+      <c r="C30" s="50">
         <f t="shared" ref="C30:I30" si="6">ROUNDUP(C29,$K$31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D30" s="53" t="e">
+        <v>1.8750099999999999E-2</v>
+      </c>
+      <c r="D30" s="50">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="53" t="e">
+        <v>-6.2500000000000003E-3</v>
+      </c>
+      <c r="E30" s="50">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="53" t="e">
+        <v>0.21875</v>
+      </c>
+      <c r="F30" s="50">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="53" t="e">
+        <v>-6.2500000000000003E-3</v>
+      </c>
+      <c r="G30" s="50">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="53" t="e">
+        <v>1.8750099999999999E-2</v>
+      </c>
+      <c r="H30" s="50">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="53">
+        <v>1.8750099999999999E-2</v>
+      </c>
+      <c r="I30" s="50">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:15" s="59" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="54" t="str">
+        <v>-3.125E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="56" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="51" t="str">
         <f>CONCATENATE(B10," =")</f>
-        <v xml:space="preserve"> =</v>
-      </c>
-      <c r="B31" s="55" t="e">
+        <v>Puissance(Whatt) =</v>
+      </c>
+      <c r="B31" s="52">
         <f>B30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C31" s="55" t="e">
+        <v>2.21875</v>
+      </c>
+      <c r="C31" s="52" t="str">
         <f>CONCATENATE((IF(C30&gt;0,CONCATENATE("+ ",C30),C30))," ",C23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="55" t="e">
+        <v>+ 0.0187501 L(mh)</v>
+      </c>
+      <c r="D31" s="52" t="str">
         <f t="shared" ref="D31:I31" si="7">CONCATENATE((IF(D30&gt;0,CONCATENATE("+ ",D30),D30))," ",D23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="55" t="e">
+        <v>-0.00625 C(microF)</v>
+      </c>
+      <c r="E31" s="52" t="str">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="55" t="e">
+        <v>+ 0.21875 R(Ohms)</v>
+      </c>
+      <c r="F31" s="52" t="str">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="55" t="e">
+        <v>-0.00625 R(Ohms) C(microF)</v>
+      </c>
+      <c r="G31" s="52" t="str">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="56" t="e">
+        <v>+ 0.0187501 R(Ohms)-L(mh)</v>
+      </c>
+      <c r="H31" s="53" t="str">
         <f>CONCATENATE((IF(H30&gt;0,CONCATENATE("+ ",H30),H30))," ",H23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="56" t="str">
+        <v>+ 0.0187501 L(mh)-C(microF)</v>
+      </c>
+      <c r="I31" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0 0-0-0</v>
-      </c>
-      <c r="J31" s="83" t="s">
+        <v>-0.03125 R(Ohms)-L(mh)-C(microF)</v>
+      </c>
+      <c r="J31" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="57">
-        <v>3</v>
-      </c>
-      <c r="L31" s="58"/>
-    </row>
-    <row r="32" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="62" t="s">
+      <c r="K31" s="54">
+        <v>7</v>
+      </c>
+      <c r="L31" s="55"/>
+    </row>
+    <row r="32" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="62" t="s">
+      <c r="M32" s="59" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="63"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="64" t="str">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="K33" s="61" t="str">
         <f>CONCATENATE(C23,"=",C7)</f>
-        <v>0=</v>
-      </c>
-      <c r="L33" s="65">
+        <v>L(mh)=10</v>
+      </c>
+      <c r="L33" s="62">
         <f>C24+B24</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="65">
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="M33" s="62">
         <f>$B$24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="63"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="64" t="str">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="K34" s="61" t="str">
         <f>CONCATENATE(C23,"=",D7)</f>
-        <v>0=</v>
-      </c>
-      <c r="L34" s="65">
+        <v>L(mh)=20</v>
+      </c>
+      <c r="L34" s="62">
         <f>C25+B25</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="65">
+        <v>2.2374999999999998</v>
+      </c>
+      <c r="M34" s="62">
         <f t="shared" ref="M34:M52" si="8">$B$24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="63"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="63"/>
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="64" t="str">
+      <c r="K36" s="61" t="str">
         <f>CONCATENATE(D23,"=",C8)</f>
-        <v>0=</v>
-      </c>
-      <c r="L36" s="65">
+        <v>C(microF)=10</v>
+      </c>
+      <c r="L36" s="62">
         <f>D24+B24</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="65">
+        <v>2.2249999999999996</v>
+      </c>
+      <c r="M36" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="63"/>
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="64" t="str">
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="61" t="str">
         <f>CONCATENATE(D23,"=",D8)</f>
-        <v>0=</v>
-      </c>
-      <c r="L37" s="65">
+        <v>C(microF)=20</v>
+      </c>
+      <c r="L37" s="62">
         <f>D25+B25</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="65">
+        <v>2.2124999999999999</v>
+      </c>
+      <c r="M37" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="63"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="64" t="str">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="K39" s="61" t="str">
         <f>CONCATENATE(E23,"=",C9)</f>
-        <v>0=</v>
-      </c>
-      <c r="L39" s="65">
+        <v>R(Ohms)=100</v>
+      </c>
+      <c r="L39" s="62">
         <f>E24+B24</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="65">
+        <v>2</v>
+      </c>
+      <c r="M39" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="63"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="64" t="str">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
+      <c r="K40" s="61" t="str">
         <f>CONCATENATE(E23,"=",D9)</f>
-        <v>0=</v>
-      </c>
-      <c r="L40" s="65">
+        <v>R(Ohms)=110</v>
+      </c>
+      <c r="L40" s="62">
         <f>E25+B25</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="65">
+        <v>2.4375</v>
+      </c>
+      <c r="M40" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="63"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="63"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="64" t="str">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="60"/>
+      <c r="K42" s="61" t="str">
         <f>CONCATENATE(F23," niveau -")</f>
-        <v>0 0 niveau -</v>
-      </c>
-      <c r="L42" s="65">
+        <v>R(Ohms) C(microF) niveau -</v>
+      </c>
+      <c r="L42" s="62">
         <f>F24+B24</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="65">
+        <v>2.2124999999999999</v>
+      </c>
+      <c r="M42" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="63"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="64" t="str">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
+      <c r="K43" s="61" t="str">
         <f>CONCATENATE(F23," niveau +")</f>
-        <v>0 0 niveau +</v>
-      </c>
-      <c r="L43" s="65">
+        <v>R(Ohms) C(microF) niveau +</v>
+      </c>
+      <c r="L43" s="62">
         <f>F25+B25</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="65">
+        <v>2.2249999999999996</v>
+      </c>
+      <c r="M43" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K44" s="61"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="64" t="str">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K45" s="61" t="str">
         <f>CONCATENATE(G23," niveau -")</f>
-        <v>0-0 niveau -</v>
-      </c>
-      <c r="L45" s="65">
+        <v>R(Ohms)-L(mh) niveau -</v>
+      </c>
+      <c r="L45" s="62">
         <f>G24+B24</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="65">
+        <v>2.2374999999999998</v>
+      </c>
+      <c r="M45" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="64" t="str">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K46" s="61" t="str">
         <f>CONCATENATE(G23," niveau +")</f>
-        <v>0-0 niveau +</v>
-      </c>
-      <c r="L46" s="65">
+        <v>R(Ohms)-L(mh) niveau +</v>
+      </c>
+      <c r="L46" s="62">
         <f>G25+B25</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M46" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="63"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="64" t="str">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="66"/>
+      <c r="H48" s="67"/>
+      <c r="K48" s="61" t="str">
         <f>CONCATENATE(H23," niveau -")</f>
-        <v>0-0 niveau -</v>
-      </c>
-      <c r="L48" s="65">
+        <v>L(mh)-C(microF) niveau -</v>
+      </c>
+      <c r="L48" s="62">
         <f>H24+B24</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="65">
+        <v>2.2374999999999998</v>
+      </c>
+      <c r="M48" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="71"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="64" t="str">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="68"/>
+      <c r="H49" s="69"/>
+      <c r="K49" s="61" t="str">
         <f>CONCATENATE(H23," niveau +")</f>
-        <v>0-0 niveau +</v>
-      </c>
-      <c r="L49" s="65">
+        <v>L(mh)-C(microF) niveau +</v>
+      </c>
+      <c r="L49" s="62">
         <f>H25+B25</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M49" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="68"/>
+      <c r="H50" s="69"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="71"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="64" t="str">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="68"/>
+      <c r="H51" s="69"/>
+      <c r="K51" s="61" t="str">
         <f>CONCATENATE(I23," niveau -")</f>
-        <v>0-0-0 niveau -</v>
-      </c>
-      <c r="L51" s="65">
+        <v>R(Ohms)-L(mh)-C(microF) niveau -</v>
+      </c>
+      <c r="L51" s="62">
         <f>I24+B24</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="65">
+        <v>2.1875</v>
+      </c>
+      <c r="M51" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="76" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A52" s="73"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="64" t="str">
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="70"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="61" t="str">
         <f>CONCATENATE(I23," niveau -")</f>
-        <v>0-0-0 niveau -</v>
-      </c>
-      <c r="L52" s="65">
+        <v>R(Ohms)-L(mh)-C(microF) niveau -</v>
+      </c>
+      <c r="L52" s="62">
         <f>I25+B25</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="65">
+        <v>2.25</v>
+      </c>
+      <c r="M52" s="62">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="76" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A53" s="73"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
+        <v>2.2187499999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="70"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:13" s="76" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A54" s="73"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
+    <row r="54" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="70"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="71"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="71"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="84" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="68"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="68"/>
+    </row>
+    <row r="59" spans="1:13" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="19" t="s">
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="19" t="s">
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="K60" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L60" s="13" t="s">
+      <c r="L60" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+    <row r="61" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="19" t="str">
         <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="21">
+        <v>L(mh)</v>
+      </c>
+      <c r="C61" s="19" t="str">
         <f>B8</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="21">
+        <v>C(microF)</v>
+      </c>
+      <c r="D61" s="19" t="str">
         <f>B9</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="23">
+        <v>R(Ohms)</v>
+      </c>
+      <c r="E61" s="21" t="str">
         <f>B10</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="20" t="str">
+        <v>Puissance(Whatt)</v>
+      </c>
+      <c r="F61" s="18" t="str">
         <f>CONCATENATE(D61," ",C61)</f>
-        <v>0 0</v>
-      </c>
-      <c r="G61" s="20" t="str">
+        <v>R(Ohms) C(microF)</v>
+      </c>
+      <c r="G61" s="18" t="str">
         <f>CONCATENATE(D61,"-",B61)</f>
-        <v>0-0</v>
-      </c>
-      <c r="H61" s="20" t="str">
+        <v>R(Ohms)-L(mh)</v>
+      </c>
+      <c r="H61" s="18" t="str">
         <f>CONCATENATE(B61,"-",C61)</f>
-        <v>0-0</v>
-      </c>
-      <c r="I61" s="20" t="str">
+        <v>L(mh)-C(microF)</v>
+      </c>
+      <c r="I61" s="18" t="str">
         <f>CONCATENATE(D61,"-",B61,"-",C61)</f>
-        <v>0-0-0</v>
-      </c>
-      <c r="J61" s="14" t="s">
+        <v>R(Ohms)-L(mh)-C(microF)</v>
+      </c>
+      <c r="J61" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K61" s="23">
+      <c r="K61" s="21" t="str">
         <f>E61</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="23" t="s">
+        <v>Puissance(Whatt)</v>
+      </c>
+      <c r="L61" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="17">
-        <v>1</v>
-      </c>
-      <c r="B62" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C62" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D62" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E62" s="22" t="e">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>1</v>
+      </c>
+      <c r="B62" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C62" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D62" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E62" s="20">
         <f>$B$29+(B62*$C$29)+(C62*$D$29)+(D62*$E$29)+(F62*$F$29)+(G62*$G$29)+(H62*$H$29)+(G62*$I$29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" s="17">
+        <v>1.9874999999999994</v>
+      </c>
+      <c r="F62" s="16">
         <f>D62*C62</f>
         <v>1</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="16">
         <f>D62*B62</f>
         <v>1</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="16">
         <f>B62*C62</f>
         <v>1</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="16">
         <f>D62*B62*C62</f>
         <v>-1</v>
       </c>
-      <c r="J62" s="17">
-        <v>1</v>
-      </c>
-      <c r="K62" s="22">
+      <c r="J62" s="16">
+        <v>1</v>
+      </c>
+      <c r="K62" s="20">
         <f>E14</f>
-        <v>0</v>
-      </c>
-      <c r="L62" s="22" t="e">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L62" s="20">
         <f>K62-E62</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="17">
+        <v>6.2500000000000444E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
         <v>2</v>
       </c>
-      <c r="B63" s="17">
-        <v>0</v>
-      </c>
-      <c r="C63" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D63" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E63" s="22" t="e">
+      <c r="B63" s="16">
+        <v>0</v>
+      </c>
+      <c r="C63" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D63" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="20">
         <f t="shared" ref="E63:E88" si="9">$B$29+(B63*$C$29)+(C63*$D$29)+(D63*$E$29)+(F63*$F$29)+(G63*$G$29)+(H63*$H$29)+(G63*$I$29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F63" s="17">
+        <v>1.9999999999999991</v>
+      </c>
+      <c r="F63" s="16">
         <f t="shared" ref="F63:F88" si="10">D63*C63</f>
         <v>1</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="16">
         <f t="shared" ref="G63:G88" si="11">D63*B63</f>
         <v>0</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="16">
         <f t="shared" ref="H63:H88" si="12">B63*C63</f>
         <v>0</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="16">
         <f t="shared" ref="I63:I88" si="13">D63*B63*C63</f>
         <v>0</v>
       </c>
-      <c r="J63" s="17"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="17">
+      <c r="J63" s="16"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
         <v>3</v>
       </c>
-      <c r="B64" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C64" s="17">
-        <v>0</v>
-      </c>
-      <c r="D64" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E64" s="22" t="e">
+      <c r="B64" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C64" s="16">
+        <v>0</v>
+      </c>
+      <c r="D64" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E64" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="17">
+        <v>1.9687499999999991</v>
+      </c>
+      <c r="F64" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="16">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J64" s="17"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="17">
+      <c r="J64" s="16"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
         <v>4</v>
       </c>
-      <c r="B65" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C65" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D65" s="17">
-        <v>0</v>
-      </c>
-      <c r="E65" s="22" t="e">
+      <c r="B65" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C65" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D65" s="16">
+        <v>0</v>
+      </c>
+      <c r="E65" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="17">
+        <v>2.2249999999999992</v>
+      </c>
+      <c r="F65" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="16">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J65" s="17"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
+      <c r="J65" s="16"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
         <v>5</v>
       </c>
-      <c r="B66" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C66" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D66" s="17">
-        <v>1</v>
-      </c>
-      <c r="E66" s="22" t="e">
+      <c r="B66" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C66" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D66" s="16">
+        <v>1</v>
+      </c>
+      <c r="E66" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F66" s="17">
+        <v>2.462499999999999</v>
+      </c>
+      <c r="F66" s="16">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="16">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="16">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="16">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J66" s="16">
         <v>2</v>
       </c>
-      <c r="K66" s="22">
+      <c r="K66" s="20">
         <f>E15</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="22" t="e">
+        <v>2.4</v>
+      </c>
+      <c r="L66" s="20">
         <f>K66-E66</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="17">
+        <v>-6.2499999999999112E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
         <v>6</v>
       </c>
-      <c r="B67" s="17">
-        <v>0</v>
-      </c>
-      <c r="C67" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D67" s="17">
-        <v>1</v>
-      </c>
-      <c r="E67" s="22" t="e">
+      <c r="B67" s="16">
+        <v>0</v>
+      </c>
+      <c r="C67" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D67" s="16">
+        <v>1</v>
+      </c>
+      <c r="E67" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F67" s="17">
+        <v>2.4499999999999993</v>
+      </c>
+      <c r="F67" s="16">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H67" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J67" s="17"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
+      <c r="J67" s="16"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
         <v>7</v>
       </c>
-      <c r="B68" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C68" s="17">
-        <v>0</v>
-      </c>
-      <c r="D68" s="17">
-        <v>1</v>
-      </c>
-      <c r="E68" s="22" t="e">
+      <c r="B68" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C68" s="16">
+        <v>0</v>
+      </c>
+      <c r="D68" s="16">
+        <v>1</v>
+      </c>
+      <c r="E68" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="17">
+        <v>2.4312499999999995</v>
+      </c>
+      <c r="F68" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G68" s="16">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J68" s="17"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
+      <c r="J68" s="16"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
         <v>8</v>
       </c>
-      <c r="B69" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C69" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D69" s="17">
-        <v>0</v>
-      </c>
-      <c r="E69" s="22" t="e">
+      <c r="B69" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C69" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D69" s="16">
+        <v>0</v>
+      </c>
+      <c r="E69" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F69" s="17">
+        <v>2.2249999999999992</v>
+      </c>
+      <c r="F69" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="16">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J69" s="17"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
+      <c r="J69" s="16"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
         <v>9</v>
       </c>
-      <c r="B70" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C70" s="17">
-        <v>1</v>
-      </c>
-      <c r="D70" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E70" s="22" t="e">
+      <c r="B70" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C70" s="16">
+        <v>1</v>
+      </c>
+      <c r="D70" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E70" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F70" s="17">
+        <v>1.9499999999999988</v>
+      </c>
+      <c r="F70" s="16">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="16">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H70" s="16">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="16">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J70" s="16">
         <v>3</v>
       </c>
-      <c r="K70" s="22">
+      <c r="K70" s="20">
         <f>E16</f>
-        <v>0</v>
-      </c>
-      <c r="L70" s="22" t="e">
+        <v>1.95</v>
+      </c>
+      <c r="L70" s="20">
         <f>K70-E70</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
         <v>10</v>
       </c>
-      <c r="B71" s="17">
-        <v>0</v>
-      </c>
-      <c r="C71" s="17">
-        <v>1</v>
-      </c>
-      <c r="D71" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E71" s="22" t="e">
+      <c r="B71" s="16">
+        <v>0</v>
+      </c>
+      <c r="C71" s="16">
+        <v>1</v>
+      </c>
+      <c r="D71" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="17">
+        <v>1.9999999999999991</v>
+      </c>
+      <c r="F71" s="16">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J71" s="17"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="17">
+      <c r="J71" s="16"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
         <v>11</v>
       </c>
-      <c r="B72" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C72" s="17">
-        <v>1</v>
-      </c>
-      <c r="D72" s="17">
-        <v>0</v>
-      </c>
-      <c r="E72" s="22" t="e">
+      <c r="B72" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C72" s="16">
+        <v>1</v>
+      </c>
+      <c r="D72" s="16">
+        <v>0</v>
+      </c>
+      <c r="E72" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F72" s="17">
+        <v>2.1749999999999994</v>
+      </c>
+      <c r="F72" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G72" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H72" s="16">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J72" s="17"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="17">
+      <c r="J72" s="16"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
         <v>12</v>
       </c>
-      <c r="B73" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C73" s="17">
-        <v>1</v>
-      </c>
-      <c r="D73" s="17">
-        <v>1</v>
-      </c>
-      <c r="E73" s="22" t="e">
+      <c r="B73" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C73" s="16">
+        <v>1</v>
+      </c>
+      <c r="D73" s="16">
+        <v>1</v>
+      </c>
+      <c r="E73" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F73" s="17">
+        <v>2.4</v>
+      </c>
+      <c r="F73" s="16">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="16">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="16">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="16">
         <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J73" s="16">
         <v>4</v>
       </c>
-      <c r="K73" s="22">
+      <c r="K73" s="20">
         <f>E17</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="22" t="e">
+        <v>2.4</v>
+      </c>
+      <c r="L73" s="20">
         <f>K73-E73</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
         <v>13</v>
       </c>
-      <c r="B74" s="17">
-        <v>0</v>
-      </c>
-      <c r="C74" s="17">
-        <v>1</v>
-      </c>
-      <c r="D74" s="17">
-        <v>1</v>
-      </c>
-      <c r="E74" s="22" t="e">
+      <c r="B74" s="16">
+        <v>0</v>
+      </c>
+      <c r="C74" s="16">
+        <v>1</v>
+      </c>
+      <c r="D74" s="16">
+        <v>1</v>
+      </c>
+      <c r="E74" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F74" s="17">
+        <v>2.4250000000000007</v>
+      </c>
+      <c r="F74" s="16">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G74" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H74" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J74" s="17"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="17">
+      <c r="J74" s="16"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
         <v>14</v>
       </c>
-      <c r="B75" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C75" s="17">
-        <v>1</v>
-      </c>
-      <c r="D75" s="17">
-        <v>0</v>
-      </c>
-      <c r="E75" s="22" t="e">
+      <c r="B75" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C75" s="16">
+        <v>1</v>
+      </c>
+      <c r="D75" s="16">
+        <v>0</v>
+      </c>
+      <c r="E75" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F75" s="17">
+        <v>2.1749999999999994</v>
+      </c>
+      <c r="F75" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G75" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="16">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J75" s="17"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
+      <c r="J75" s="16"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
         <v>15</v>
       </c>
-      <c r="B76" s="17">
-        <v>1</v>
-      </c>
-      <c r="C76" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D76" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E76" s="22" t="e">
+      <c r="B76" s="16">
+        <v>1</v>
+      </c>
+      <c r="C76" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D76" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E76" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F76" s="17">
+        <v>2.0124999999999988</v>
+      </c>
+      <c r="F76" s="16">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G76" s="16">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="16">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="16">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J76" s="16">
         <v>5</v>
       </c>
-      <c r="K76" s="22">
+      <c r="K76" s="20">
         <f>E18</f>
-        <v>0</v>
-      </c>
-      <c r="L76" s="22" t="e">
+        <v>1.95</v>
+      </c>
+      <c r="L76" s="20">
         <f>K76-E76</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="17">
+        <v>-6.249999999999889E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
         <v>16</v>
       </c>
-      <c r="B77" s="17">
-        <v>1</v>
-      </c>
-      <c r="C77" s="17">
-        <v>0</v>
-      </c>
-      <c r="D77" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E77" s="22" t="e">
+      <c r="B77" s="16">
+        <v>1</v>
+      </c>
+      <c r="C77" s="16">
+        <v>0</v>
+      </c>
+      <c r="D77" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E77" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F77" s="17">
+        <v>2.0312499999999991</v>
+      </c>
+      <c r="F77" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G77" s="16">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H77" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J77" s="17"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
+      <c r="J77" s="16"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
         <v>17</v>
       </c>
-      <c r="B78" s="17">
-        <v>1</v>
-      </c>
-      <c r="C78" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D78" s="17">
-        <v>0</v>
-      </c>
-      <c r="E78" s="22" t="e">
+      <c r="B78" s="16">
+        <v>1</v>
+      </c>
+      <c r="C78" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D78" s="16">
+        <v>0</v>
+      </c>
+      <c r="E78" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F78" s="17">
+        <v>2.2249999999999992</v>
+      </c>
+      <c r="F78" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H78" s="16">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J78" s="17"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="17">
+      <c r="J78" s="16"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
         <v>18</v>
       </c>
-      <c r="B79" s="17">
-        <v>1</v>
-      </c>
-      <c r="C79" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D79" s="17">
-        <v>1</v>
-      </c>
-      <c r="E79" s="22" t="e">
+      <c r="B79" s="16">
+        <v>1</v>
+      </c>
+      <c r="C79" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D79" s="16">
+        <v>1</v>
+      </c>
+      <c r="E79" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F79" s="17">
+        <v>2.4374999999999996</v>
+      </c>
+      <c r="F79" s="16">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G79" s="16">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="16">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I79" s="16">
         <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J79" s="16">
         <v>6</v>
       </c>
-      <c r="K79" s="22">
+      <c r="K79" s="20">
         <f>E19</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="22" t="e">
+        <v>2.5</v>
+      </c>
+      <c r="L79" s="20">
         <f>K79-E79</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="17">
+        <v>6.2500000000000444E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
         <v>19</v>
       </c>
-      <c r="B80" s="17">
-        <v>0</v>
-      </c>
-      <c r="C80" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D80" s="17">
-        <v>1</v>
-      </c>
-      <c r="E80" s="22" t="e">
+      <c r="B80" s="16">
+        <v>0</v>
+      </c>
+      <c r="C80" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D80" s="16">
+        <v>1</v>
+      </c>
+      <c r="E80" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F80" s="17">
+        <v>2.4499999999999993</v>
+      </c>
+      <c r="F80" s="16">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G80" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H80" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I80" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J80" s="17"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="17">
+      <c r="J80" s="16"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="16">
         <v>20</v>
       </c>
-      <c r="B81" s="17">
-        <v>1</v>
-      </c>
-      <c r="C81" s="17">
-        <v>0</v>
-      </c>
-      <c r="D81" s="17">
-        <v>1</v>
-      </c>
-      <c r="E81" s="22" t="e">
+      <c r="B81" s="16">
+        <v>1</v>
+      </c>
+      <c r="C81" s="16">
+        <v>0</v>
+      </c>
+      <c r="D81" s="16">
+        <v>1</v>
+      </c>
+      <c r="E81" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F81" s="17">
+        <v>2.4437500000000005</v>
+      </c>
+      <c r="F81" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G81" s="16">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H81" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J81" s="17"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="17">
+      <c r="J81" s="16"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
         <v>21</v>
       </c>
-      <c r="B82" s="17">
-        <v>1</v>
-      </c>
-      <c r="C82" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D82" s="17">
-        <v>0</v>
-      </c>
-      <c r="E82" s="22" t="e">
+      <c r="B82" s="16">
+        <v>1</v>
+      </c>
+      <c r="C82" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D82" s="16">
+        <v>0</v>
+      </c>
+      <c r="E82" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F82" s="17">
+        <v>2.2249999999999992</v>
+      </c>
+      <c r="F82" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G82" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H82" s="16">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J82" s="17"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="17">
+      <c r="J82" s="16"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="16">
         <v>22</v>
       </c>
-      <c r="B83" s="17">
-        <v>1</v>
-      </c>
-      <c r="C83" s="17">
-        <v>1</v>
-      </c>
-      <c r="D83" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E83" s="22" t="e">
+      <c r="B83" s="16">
+        <v>1</v>
+      </c>
+      <c r="C83" s="16">
+        <v>1</v>
+      </c>
+      <c r="D83" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F83" s="17">
+        <v>2.0499999999999994</v>
+      </c>
+      <c r="F83" s="16">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G83" s="16">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H83" s="16">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I83" s="16">
         <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J83" s="16">
         <v>7</v>
       </c>
-      <c r="K83" s="22">
+      <c r="K83" s="20">
         <f>E20</f>
-        <v>0</v>
-      </c>
-      <c r="L83" s="22" t="e">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L83" s="20">
         <f>K83-E83</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
         <v>23</v>
       </c>
-      <c r="B84" s="17">
-        <v>1</v>
-      </c>
-      <c r="C84" s="17">
-        <v>0</v>
-      </c>
-      <c r="D84" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E84" s="22" t="e">
+      <c r="B84" s="16">
+        <v>1</v>
+      </c>
+      <c r="C84" s="16">
+        <v>0</v>
+      </c>
+      <c r="D84" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E84" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F84" s="17">
+        <v>2.0312499999999991</v>
+      </c>
+      <c r="F84" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G84" s="16">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H84" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J84" s="17"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="17">
+      <c r="J84" s="16"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="16">
         <v>24</v>
       </c>
-      <c r="B85" s="17">
-        <v>1</v>
-      </c>
-      <c r="C85" s="17">
-        <v>1</v>
-      </c>
-      <c r="D85" s="17">
-        <v>0</v>
-      </c>
-      <c r="E85" s="22" t="e">
+      <c r="B85" s="16">
+        <v>1</v>
+      </c>
+      <c r="C85" s="16">
+        <v>1</v>
+      </c>
+      <c r="D85" s="16">
+        <v>0</v>
+      </c>
+      <c r="E85" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F85" s="17">
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="F85" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G85" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H85" s="16">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I85" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J85" s="17"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="17">
+      <c r="J85" s="16"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="16">
         <v>25</v>
       </c>
-      <c r="B86" s="17">
-        <v>1</v>
-      </c>
-      <c r="C86" s="17">
-        <v>1</v>
-      </c>
-      <c r="D86" s="17">
-        <v>1</v>
-      </c>
-      <c r="E86" s="22" t="e">
+      <c r="B86" s="16">
+        <v>1</v>
+      </c>
+      <c r="C86" s="16">
+        <v>1</v>
+      </c>
+      <c r="D86" s="16">
+        <v>1</v>
+      </c>
+      <c r="E86" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F86" s="17">
+        <v>2.4500000000000015</v>
+      </c>
+      <c r="F86" s="16">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G86" s="16">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H86" s="16">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I86" s="16">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J86" s="16">
         <v>8</v>
       </c>
-      <c r="K86" s="22">
+      <c r="K86" s="20">
         <f>E21</f>
-        <v>0</v>
-      </c>
-      <c r="L86" s="22" t="e">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L86" s="20">
         <f>K86-E86</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="16">
         <v>26</v>
       </c>
-      <c r="B87" s="17">
-        <v>1</v>
-      </c>
-      <c r="C87" s="17">
-        <v>1</v>
-      </c>
-      <c r="D87" s="17">
-        <v>0</v>
-      </c>
-      <c r="E87" s="22" t="e">
+      <c r="B87" s="16">
+        <v>1</v>
+      </c>
+      <c r="C87" s="16">
+        <v>1</v>
+      </c>
+      <c r="D87" s="16">
+        <v>0</v>
+      </c>
+      <c r="E87" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F87" s="17">
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="F87" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G87" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H87" s="16">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J87" s="17"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="17">
+      <c r="J87" s="16"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="16">
         <v>27</v>
       </c>
-      <c r="B88" s="17">
-        <v>0</v>
-      </c>
-      <c r="C88" s="17">
-        <v>0</v>
-      </c>
-      <c r="D88" s="17">
-        <v>0</v>
-      </c>
-      <c r="E88" s="22" t="e">
+      <c r="B88" s="16">
+        <v>0</v>
+      </c>
+      <c r="C88" s="16">
+        <v>0</v>
+      </c>
+      <c r="D88" s="16">
+        <v>0</v>
+      </c>
+      <c r="E88" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F88" s="17">
+        <v>2.2187499999999996</v>
+      </c>
+      <c r="F88" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G88" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I88" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J88" s="17"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-    </row>
-    <row r="89" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="J88" s="16"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+    </row>
+    <row r="89" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-      <c r="K89" s="77" t="s">
+      <c r="K89" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="L89" s="78" t="e">
+      <c r="L89" s="75">
         <f>SUM(L62:L88)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.886579864025407E-15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="10"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-      <c r="K91" s="10"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
